--- a/habitat_attribute_lifestage.xlsx
+++ b/habitat_attribute_lifestage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="49">
   <si>
     <t>Species</t>
   </si>
@@ -28,105 +28,102 @@
     <t>Unnamed: 3</t>
   </si>
   <si>
-    <t>Unnamed: 4</t>
+    <t>Bull Trout</t>
+  </si>
+  <si>
+    <t>Spring Chinook</t>
   </si>
   <si>
     <t>Steelhead</t>
   </si>
   <si>
-    <t>Spring Chinook</t>
-  </si>
-  <si>
-    <t>Bull Trout</t>
+    <t>Adult Spawning Migration</t>
   </si>
   <si>
     <t>Adult Migration</t>
   </si>
   <si>
-    <t>Adult Spawning Migration</t>
+    <t>BT Subadult Rearing</t>
+  </si>
+  <si>
+    <t>FMO (Adult Non-Spawning)</t>
+  </si>
+  <si>
+    <t>Fry</t>
+  </si>
+  <si>
+    <t>Holding and Maturation</t>
+  </si>
+  <si>
+    <t>Smolt Outmigration</t>
+  </si>
+  <si>
+    <t>Spawning and Incubation</t>
+  </si>
+  <si>
+    <t>Summer Rearing</t>
+  </si>
+  <si>
+    <t>Winter Rearing</t>
   </si>
   <si>
     <t>BT Natal Rearing</t>
   </si>
   <si>
-    <t>BT Subadult Rearing</t>
-  </si>
-  <si>
-    <t>FMO (Adult Non-Spawning)</t>
-  </si>
-  <si>
-    <t>Fry</t>
-  </si>
-  <si>
-    <t>Holding and Maturation</t>
-  </si>
-  <si>
-    <t>Smolt Outmigration</t>
-  </si>
-  <si>
-    <t>Spawning and Incubation</t>
-  </si>
-  <si>
-    <t>Summer Rearing</t>
-  </si>
-  <si>
-    <t>Winter Rearing</t>
-  </si>
-  <si>
     <t>Flow- Summer Base Flow</t>
   </si>
   <si>
+    <t>Brook Trout</t>
+  </si>
+  <si>
+    <t>Contaminants</t>
+  </si>
+  <si>
+    <t>Cover- Undercut banks</t>
+  </si>
+  <si>
     <t>Cover- Wood</t>
   </si>
   <si>
+    <t>Food- Food Web Resources</t>
+  </si>
+  <si>
     <t xml:space="preserve">Off-Channel- Floodplain </t>
   </si>
   <si>
     <t>Off-Channel- Side-Channels</t>
   </si>
   <si>
+    <t>Predators- Juveniles</t>
+  </si>
+  <si>
+    <t>Pool Quantity &amp; Quality</t>
+  </si>
+  <si>
+    <t>Coarse Substrate</t>
+  </si>
+  <si>
+    <t>Temperature- BT Rearing</t>
+  </si>
+  <si>
+    <t>Harassment</t>
+  </si>
+  <si>
+    <t>Temperature- FMO</t>
+  </si>
+  <si>
+    <t>Entrainment- Fry</t>
+  </si>
+  <si>
     <t>Predators Fry</t>
   </si>
   <si>
-    <t>Coarse Substrate</t>
+    <t>Cover- Boulders</t>
   </si>
   <si>
     <t>Cover- Undercut Banks</t>
   </si>
   <si>
-    <t>Temperature- BT Rearing</t>
-  </si>
-  <si>
-    <t>Brook Trout</t>
-  </si>
-  <si>
-    <t>Contaminants</t>
-  </si>
-  <si>
-    <t>Cover- Undercut banks</t>
-  </si>
-  <si>
-    <t>Food- Food Web Resources</t>
-  </si>
-  <si>
-    <t>Predators- Juveniles</t>
-  </si>
-  <si>
-    <t>Pool Quantity &amp; Quality</t>
-  </si>
-  <si>
-    <t>Harassment</t>
-  </si>
-  <si>
-    <t>Temperature- FMO</t>
-  </si>
-  <si>
-    <t>Entrainment- Fry</t>
-  </si>
-  <si>
-    <t>Cover- Boulders</t>
-  </si>
-  <si>
     <t>Predators- Adult</t>
   </si>
   <si>
@@ -148,10 +145,10 @@
     <t>Flow- Scour</t>
   </si>
   <si>
+    <t>Hybridization</t>
+  </si>
+  <si>
     <t>Icing</t>
-  </si>
-  <si>
-    <t>Hybridization</t>
   </si>
   <si>
     <t>Superimposition</t>
@@ -521,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,524 +537,431 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1065,50 +969,41 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1116,67 +1011,55 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
       </c>
-      <c r="F38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1184,84 +1067,69 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
       </c>
-      <c r="F40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1269,50 +1137,41 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1320,53 +1179,44 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1374,19 +1224,16 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1394,50 +1241,41 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
         <v>36</v>
       </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1445,50 +1283,41 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
         <v>37</v>
       </c>
-      <c r="F56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1496,33 +1325,27 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
         <v>38</v>
       </c>
-      <c r="F58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1530,186 +1353,153 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
-      </c>
-      <c r="F59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
-      </c>
-      <c r="F68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1717,19 +1507,16 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
-      </c>
-      <c r="F70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1737,33 +1524,27 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1771,36 +1552,30 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>42</v>
       </c>
       <c r="E73" t="s">
-        <v>49</v>
-      </c>
-      <c r="F73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1808,50 +1583,41 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>33</v>
-      </c>
-      <c r="F77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1859,93 +1625,78 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
-      </c>
-      <c r="F80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E82" t="s">
-        <v>49</v>
-      </c>
-      <c r="F82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1953,67 +1704,55 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
-      </c>
-      <c r="F84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2021,189 +1760,156 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E88" t="s">
-        <v>49</v>
-      </c>
-      <c r="F88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
         <v>46</v>
       </c>
-      <c r="F89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
-      </c>
-      <c r="F91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
-      </c>
-      <c r="F93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
-      </c>
-      <c r="F95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
-      </c>
-      <c r="F96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2211,36 +1917,30 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
-      </c>
-      <c r="F98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
-      </c>
-      <c r="F99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2248,33 +1948,27 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>20</v>
-      </c>
-      <c r="F101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2282,36 +1976,30 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" t="s">
         <v>48</v>
       </c>
-      <c r="E102" t="s">
-        <v>49</v>
-      </c>
-      <c r="F102">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2319,33 +2007,27 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>30</v>
-      </c>
-      <c r="F104">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>21</v>
-      </c>
-      <c r="F105">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2353,33 +2035,27 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>22</v>
-      </c>
-      <c r="F106">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
-      </c>
-      <c r="F107">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2387,36 +2063,30 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E108" t="s">
-        <v>49</v>
-      </c>
-      <c r="F108">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
-      </c>
-      <c r="F109">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2424,16 +2094,13 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>41</v>
-      </c>
-      <c r="F110">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2441,33 +2108,27 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
-      </c>
-      <c r="F111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
-      </c>
-      <c r="F112">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2475,33 +2136,27 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
-      </c>
-      <c r="F114">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2509,33 +2164,27 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>48</v>
-      </c>
-      <c r="F115">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2543,33 +2192,27 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>30</v>
-      </c>
-      <c r="F117">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>21</v>
-      </c>
-      <c r="F118">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2577,36 +2220,30 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
         <v>22</v>
       </c>
-      <c r="F119">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E120" t="s">
-        <v>49</v>
-      </c>
-      <c r="F120">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2614,36 +2251,30 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>32</v>
-      </c>
-      <c r="F121">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E122" t="s">
-        <v>49</v>
-      </c>
-      <c r="F122">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2651,16 +2282,13 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>41</v>
-      </c>
-      <c r="F123">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2668,33 +2296,27 @@
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
-      </c>
-      <c r="F124">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2702,33 +2324,27 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>43</v>
-      </c>
-      <c r="F126">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>44</v>
-      </c>
-      <c r="F127">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2736,174 +2352,144 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
-      </c>
-      <c r="F129">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
-        <v>42</v>
-      </c>
-      <c r="F130">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131" t="s">
-        <v>18</v>
-      </c>
       <c r="D131" t="s">
-        <v>36</v>
-      </c>
-      <c r="F131">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>43</v>
-      </c>
-      <c r="F133">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>44</v>
-      </c>
-      <c r="F134">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>22</v>
-      </c>
-      <c r="F135">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
-      </c>
-      <c r="F136">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>42</v>
-      </c>
-      <c r="F137">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
       <c r="D138" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/habitat_attribute_lifestage.xlsx
+++ b/habitat_attribute_lifestage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="45">
   <si>
     <t>Species</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Habitat Attribute</t>
   </si>
   <si>
-    <t>Unnamed: 3</t>
+    <t>Core Metric?</t>
   </si>
   <si>
     <t>Bull Trout</t>
@@ -37,130 +37,118 @@
     <t>Steelhead</t>
   </si>
   <si>
-    <t>Adult Spawning Migration</t>
-  </si>
-  <si>
     <t>Adult Migration</t>
   </si>
   <si>
+    <t>Adult Non-Spawning</t>
+  </si>
+  <si>
+    <t>BT Natal Rearing</t>
+  </si>
+  <si>
     <t>BT Subadult Rearing</t>
   </si>
   <si>
-    <t>FMO (Adult Non-Spawning)</t>
+    <t>Holding and Maturation</t>
+  </si>
+  <si>
+    <t>Spawning and Incubation</t>
+  </si>
+  <si>
+    <t>Winter Rearing</t>
   </si>
   <si>
     <t>Fry</t>
   </si>
   <si>
-    <t>Holding and Maturation</t>
+    <t>Summer Rearing</t>
   </si>
   <si>
     <t>Smolt Outmigration</t>
   </si>
   <si>
-    <t>Spawning and Incubation</t>
-  </si>
-  <si>
-    <t>Summer Rearing</t>
-  </si>
-  <si>
-    <t>Winter Rearing</t>
-  </si>
-  <si>
-    <t>BT Natal Rearing</t>
-  </si>
-  <si>
     <t>Flow- Summer Base Flow</t>
   </si>
   <si>
+    <t>Contaminants</t>
+  </si>
+  <si>
+    <t>Food- Food Web Resources</t>
+  </si>
+  <si>
+    <t>Harassment</t>
+  </si>
+  <si>
+    <t>Pool Quantity &amp; Quality</t>
+  </si>
+  <si>
+    <t>Temperature- Rearing</t>
+  </si>
+  <si>
     <t>Brook Trout</t>
   </si>
   <si>
-    <t>Contaminants</t>
+    <t>Coarse Substrate</t>
+  </si>
+  <si>
+    <t>Cover- Undercut Banks</t>
+  </si>
+  <si>
+    <t>Cover- Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel- Floodplain </t>
+  </si>
+  <si>
+    <t>Off-Channel- Side-Channels</t>
   </si>
   <si>
     <t>Cover- Undercut banks</t>
   </si>
   <si>
-    <t>Cover- Wood</t>
-  </si>
-  <si>
-    <t>Food- Food Web Resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel- Floodplain </t>
-  </si>
-  <si>
-    <t>Off-Channel- Side-Channels</t>
-  </si>
-  <si>
     <t>Predators- Juveniles</t>
   </si>
   <si>
-    <t>Pool Quantity &amp; Quality</t>
-  </si>
-  <si>
-    <t>Coarse Substrate</t>
-  </si>
-  <si>
-    <t>Temperature- BT Rearing</t>
-  </si>
-  <si>
-    <t>Harassment</t>
-  </si>
-  <si>
-    <t>Temperature- FMO</t>
+    <t>Cover- Boulders</t>
+  </si>
+  <si>
+    <t>Pools- Deep Pools</t>
+  </si>
+  <si>
+    <t>Predators- Adult</t>
+  </si>
+  <si>
+    <t>Temperature- Adult Holding</t>
+  </si>
+  <si>
+    <t>% Fines/Embeddedness</t>
+  </si>
+  <si>
+    <t>Flow- Scour</t>
+  </si>
+  <si>
+    <t>Icing</t>
   </si>
   <si>
     <t>Entrainment- Fry</t>
   </si>
   <si>
+    <t>Entrainment- Summer Rearing</t>
+  </si>
+  <si>
+    <t>Hybridization</t>
+  </si>
+  <si>
+    <t>Superimposition</t>
+  </si>
+  <si>
+    <t>Temperature- Adult Spawning</t>
+  </si>
+  <si>
     <t>Predators Fry</t>
   </si>
   <si>
-    <t>Cover- Boulders</t>
-  </si>
-  <si>
-    <t>Cover- Undercut Banks</t>
-  </si>
-  <si>
-    <t>Predators- Adult</t>
-  </si>
-  <si>
-    <t>Pools- Deep Pools</t>
-  </si>
-  <si>
-    <t>Temperature- Adult Holding</t>
-  </si>
-  <si>
-    <t>Temperature- BT Holding</t>
-  </si>
-  <si>
-    <t>Temperature- Rearing</t>
-  </si>
-  <si>
-    <t>% Fines/Embeddedness</t>
-  </si>
-  <si>
-    <t>Flow- Scour</t>
-  </si>
-  <si>
-    <t>Hybridization</t>
-  </si>
-  <si>
-    <t>Icing</t>
-  </si>
-  <si>
-    <t>Superimposition</t>
-  </si>
-  <si>
-    <t>Temperature- Adult Spawning</t>
-  </si>
-  <si>
-    <t>Entrainment- Summer Rearing</t>
-  </si>
-  <si>
-    <t>*</t>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -518,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +537,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,13 +548,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,13 +565,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,11 +582,14 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
@@ -602,11 +599,14 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
@@ -616,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -630,10 +630,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -647,7 +650,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -661,7 +667,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -675,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -689,7 +698,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -703,7 +715,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -717,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -731,7 +746,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -742,10 +760,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -759,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -775,6 +796,9 @@
       <c r="D18" t="s">
         <v>18</v>
       </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
@@ -787,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -801,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -815,7 +839,10 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -829,7 +856,10 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -837,13 +867,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -851,13 +881,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -865,16 +895,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -882,13 +909,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -896,13 +923,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -910,13 +937,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -924,13 +951,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -938,13 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -952,13 +982,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -966,13 +999,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -980,13 +1013,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -997,10 +1030,13 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1008,13 +1044,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1022,10 +1061,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
@@ -1042,7 +1081,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1050,13 +1092,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1064,13 +1109,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1084,7 +1132,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1092,13 +1140,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1106,13 +1154,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1126,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1140,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1148,13 +1196,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1162,13 +1210,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1182,10 +1230,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1193,30 +1238,30 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1227,41 +1272,38 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1269,41 +1311,41 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1311,27 +1353,27 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1339,41 +1381,41 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1381,27 +1423,27 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1409,41 +1451,41 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1451,55 +1493,55 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1507,44 +1549,41 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>20</v>
       </c>
-      <c r="E70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1552,30 +1591,27 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1586,38 +1622,38 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1625,30 +1661,27 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1656,30 +1689,27 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1687,30 +1717,27 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1718,27 +1745,27 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1746,27 +1773,27 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1774,16 +1801,13 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
-      </c>
-      <c r="E88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1791,13 +1815,13 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1805,27 +1829,27 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1833,41 +1857,41 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1875,27 +1899,27 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1903,30 +1927,27 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
-      </c>
-      <c r="E98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1937,24 +1958,24 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1965,27 +1986,24 @@
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1993,27 +2011,27 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2021,27 +2039,27 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2052,27 +2070,24 @@
         <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
         <v>26</v>
       </c>
-      <c r="E108" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2080,27 +2095,27 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2108,27 +2123,27 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2136,27 +2151,27 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2164,27 +2179,27 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2192,27 +2207,27 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2220,30 +2235,27 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>42</v>
-      </c>
-      <c r="E120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2251,30 +2263,27 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>44</v>
-      </c>
-      <c r="E122" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2282,27 +2291,27 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2310,27 +2319,27 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2338,24 +2347,24 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2366,10 +2375,10 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2377,21 +2386,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
       <c r="D131" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2399,13 +2414,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2413,13 +2428,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2427,13 +2442,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2441,13 +2456,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2455,41 +2470,21 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" t="s">
-        <v>17</v>
-      </c>
       <c r="D137" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
